--- a/lib_tc_bak/com.aislend.UserSignIn.xlsx
+++ b/lib_tc_bak/com.aislend.UserSignIn.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8446" uniqueCount="277">
   <si>
     <t>Action</t>
   </si>
@@ -685,9 +685,6 @@
     <t>magestore-invalid-email-forgot</t>
   </si>
   <si>
-    <t>We sent an email with instructions to reset your password. Please check your "Junk" or "Spam" email folders if you do not see the email within the next 10 minutes.</t>
-  </si>
-  <si>
     <t>Message "We sent an email with instructions to reset your password. Please check your "Junk" or "Spam" email folders if you do not see the email within the next 10 minutes." should appear on the screen.</t>
   </si>
   <si>
@@ -712,16 +709,325 @@
     <t>//span[contains(text(),'Akash')]</t>
   </si>
   <si>
-    <t>text verified: We sent an email with instructions to reset your password. Please check your Junk or Spam email folders if you do not see the email within the next 10 minutes.</t>
-  </si>
-  <si>
-    <t>Title verification Failed: City Super Market Norwalk - Online Grocery Shopping with Home Delivery</t>
-  </si>
-  <si>
     <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
   </si>
   <si>
-    <t>Title verified succesfully: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>VerifyText: Sign in</t>
+  </si>
+  <si>
+    <t>ClearText: null</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter your email address.</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter your password.</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>VerifyNoElement: null</t>
+  </si>
+  <si>
+    <t>SetText: userchandna4861983@mailinator.com</t>
+  </si>
+  <si>
+    <t>SetText: asdasdasdasd@mailinator.com</t>
+  </si>
+  <si>
+    <t>VerifyText: Invalid login or password.</t>
+  </si>
+  <si>
+    <t>SetText: 12345677</t>
+  </si>
+  <si>
+    <t>SetText: 123456787</t>
+  </si>
+  <si>
+    <t>SetText: 123</t>
+  </si>
+  <si>
+    <t>SetText: asdasdasdasd@</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash Sangal</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>VerifyText: We sent an email with instructions to reset your password. Please check your Junk or Spam email folders if you do not see the email within the next 10 minutes.</t>
+  </si>
+  <si>
+    <t>We sent an email with instructions to reset your password. Please check your "Junk" or "Spam" email folders if you do not see the email within the next 10 minutes</t>
+  </si>
+  <si>
+    <t>VerifyText: We sent an email with instructions to reset your password. Please check your Junk or Spam email folders if you do not see the email within the next 10 minutes</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;button id="magestore-button-sociallogin" class="button popup_click_btn btn btn__default validation-passed" name="send" title="Login" type="button"&gt;...&lt;/button&gt; is not clickable at point (674, 278). Other element would receive the click: &lt;img alt="Loading..." src="https://smhttp-ssl-72073.nexcesscdn.net/static/version1536316499/frontend/Aislend/multistore/en_US/images/loader-2.gif"&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 111 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11176_15043}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 9e29dcc4daba823c2dc5a2e3f2ce7c11</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;button id="magestore-button-sociallogin" class="button popup_click_btn btn btn__default validation-passed" name="send" title="Login" type="button"&gt;...&lt;/button&gt; is not clickable at point (674, 278). Other element would receive the click: &lt;img alt="Loading..." src="https://smhttp-ssl-72073.nexcesscdn.net/static/version1536316499/frontend/Aislend/multistore/en_US/images/loader-2.gif"&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 34 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11176_15043}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 9e29dcc4daba823c2dc5a2e3f2ce7c11</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;button id="magestore-button-sociallogin" class="button popup_click_btn btn btn__default validation-passed" name="send" title="Login" type="button"&gt;...&lt;/button&gt; is not clickable at point (674, 278). Other element would receive the click: &lt;img alt="Loading..." src="https://smhttp-ssl-72073.nexcesscdn.net/static/version1536316499/frontend/Aislend/multistore/en_US/images/loader-2.gif"&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 33 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11176_15043}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 9e29dcc4daba823c2dc5a2e3f2ce7c11</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: advice-validate-email-magestore-sociallogin-popup-email (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11176_15043}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 9e29dcc4daba823c2dc5a2e3f2ce7c11</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;button id="magestore-button-sociallogin" class="button popup_click_btn btn btn__default validation-passed" name="send" title="Login" type="button"&gt;...&lt;/button&gt; is not clickable at point (674, 278). Other element would receive the click: &lt;img alt="Loading..." src="https://smhttp-ssl-72073.nexcesscdn.net/static/version1536316499/frontend/Aislend/multistore/en_US/images/loader-2.gif"&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 51 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11176_15043}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 9e29dcc4daba823c2dc5a2e3f2ce7c11</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;button id="magestore-button-sociallogin" class="button popup_click_btn btn btn__default validation-passed" name="send" title="Login" type="button"&gt;...&lt;/button&gt; is not clickable at point (674, 278). Other element would receive the click: &lt;img alt="Loading..." src="https://smhttp-ssl-72073.nexcesscdn.net/static/version1536666372/frontend/Aislend/multistore/en_US/images/loader-2.gif"&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 32 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;button id="magestore-button-sociallogin" class="button popup_click_btn btn btn__default validation-passed" name="send" title="Login" type="button"&gt;...&lt;/button&gt; is not clickable at point (674, 278). Other element would receive the click: &lt;img alt="Loading..." src="https://smhttp-ssl-72073.nexcesscdn.net/static/version1536666372/frontend/Aislend/multistore/en_US/images/loader-2.gif"&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 34 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: advice-validate-email-magestore-sociallogin-popup-email (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;button id="magestore-button-sociallogin" class="button popup_click_btn btn btn__default validation-passed" name="send" title="Login" type="button"&gt;...&lt;/button&gt; is not clickable at point (674, 278). Other element would receive the click: &lt;img alt="Loading..." src="https://smhttp-ssl-72073.nexcesscdn.net/static/version1536666372/frontend/Aislend/multistore/en_US/images/loader-2.gif"&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>text not verified: Akash Sangal</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //span[contains(text(),'Akash')] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[1]/span"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4
+*** Element info: {Using=xpath, value=//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[1]/span}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4
+*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;a href="javascript:void(0);" onclick="openSignInWindow()"&gt;...&lt;/a&gt; is not clickable at point (1238, 51). Other element would receive the click: &lt;div class="loading-mask" data-role="loader" style="display: block;"&gt;...&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 48 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;div id="sociallogin-close-popup" title="Close"&gt;&lt;/div&gt; is not clickable at point (824, 75). Other element would receive the click: &lt;div class="loading-mask" data-role="loader" style="display: block;"&gt;...&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 90 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;a href="javascript:void(0);" onclick="openSignInWindow()"&gt;...&lt;/a&gt; is not clickable at point (1238, 51). Other element would receive the click: &lt;div class="loading-mask" data-role="loader" style="display: block;"&gt;...&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;a href="javascript:void(0);" onclick="openForgetPasswordWindow();"&gt;...&lt;/a&gt; is not clickable at point (617, 325). Other element would receive the click: &lt;img alt="Loading..." src="https://smhttp-ssl-72073.nexcesscdn.net/static/version1536666372/frontend/Aislend/multistore/en_US/images/loader-2.gif"&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 54 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 27 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter your email address.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: advice-required-entry-email-magestore-sociallogin-popup-email-forgot (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>action set text failed: Randomemailid</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 21 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;div id="sociallogin-close-popup" title="Close"&gt;&lt;/div&gt; is not clickable at point (824, 75). Other element would receive the click: &lt;div class="loading-mask" data-role="loader" style="display: block;"&gt;...&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 80 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12192_12921}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 6476cfe6d722620c90f77f05209938c4</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;div id="sociallogin-close-popup" title="Close"&gt;&lt;/div&gt; is not clickable at point (824, 75). Other element would receive the click: &lt;div class="loading-mask" data-role="loader"&gt;...&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 51 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d</t>
   </si>
 </sst>
 </file>
@@ -1476,17 +1782,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1496,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1565,7 +1871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:15">
+    <row ht="60" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1581,16 +1887,16 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>153</v>
@@ -1629,7 +1935,7 @@
         <v>116</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>153</v>
@@ -1668,7 +1974,7 @@
         <v>117</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>153</v>
@@ -1707,7 +2013,7 @@
         <v>118</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>153</v>
@@ -1748,7 +2054,7 @@
         <v>119</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>153</v>
@@ -1787,7 +2093,7 @@
         <v>120</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>153</v>
@@ -1826,7 +2132,7 @@
         <v>121</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>153</v>
@@ -1865,7 +2171,7 @@
         <v>122</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>153</v>
@@ -1904,7 +2210,7 @@
         <v>123</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>153</v>
@@ -1943,7 +2249,7 @@
         <v>124</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>153</v>
@@ -1982,7 +2288,7 @@
         <v>125</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>153</v>
@@ -2021,7 +2327,7 @@
         <v>126</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>153</v>
@@ -2060,7 +2366,7 @@
         <v>127</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>153</v>
@@ -2101,7 +2407,7 @@
         <v>128</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>153</v>
@@ -2142,7 +2448,7 @@
         <v>129</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>153</v>
@@ -2181,7 +2487,7 @@
         <v>125</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>153</v>
@@ -2222,7 +2528,7 @@
         <v>130</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>153</v>
@@ -2261,7 +2567,7 @@
         <v>131</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>153</v>
@@ -2302,7 +2608,7 @@
         <v>128</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>153</v>
@@ -2341,7 +2647,7 @@
         <v>134</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>153</v>
@@ -2382,7 +2688,7 @@
         <v>132</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>153</v>
@@ -2421,7 +2727,7 @@
         <v>126</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>153</v>
@@ -2460,7 +2766,7 @@
         <v>127</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>153</v>
@@ -2499,7 +2805,7 @@
         <v>135</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>153</v>
@@ -2540,7 +2846,7 @@
         <v>129</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>153</v>
@@ -2581,7 +2887,7 @@
         <v>136</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>153</v>
@@ -2622,7 +2928,7 @@
         <v>130</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>153</v>
@@ -2661,7 +2967,7 @@
         <v>127</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>153</v>
@@ -2702,10 +3008,10 @@
         <v>137</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>154</v>
@@ -2743,7 +3049,7 @@
         <v>138</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>153</v>
@@ -2784,7 +3090,7 @@
         <v>133</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>153</v>
@@ -2823,7 +3129,7 @@
         <v>127</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>153</v>
@@ -2864,7 +3170,7 @@
         <v>137</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>153</v>
@@ -2905,7 +3211,7 @@
         <v>138</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>153</v>
@@ -2946,7 +3252,7 @@
         <v>133</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>153</v>
@@ -2985,7 +3291,7 @@
         <v>127</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>153</v>
@@ -3026,7 +3332,7 @@
         <v>137</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>153</v>
@@ -3067,7 +3373,7 @@
         <v>138</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>153</v>
@@ -3108,7 +3414,7 @@
         <v>133</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>153</v>
@@ -3147,7 +3453,7 @@
         <v>127</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>153</v>
@@ -3188,7 +3494,7 @@
         <v>141</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>153</v>
@@ -3229,7 +3535,7 @@
         <v>138</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>153</v>
@@ -3270,7 +3576,7 @@
         <v>133</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>153</v>
@@ -3309,7 +3615,7 @@
         <v>127</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>153</v>
@@ -3350,7 +3656,7 @@
         <v>143</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>153</v>
@@ -3395,7 +3701,7 @@
         <v>138</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>153</v>
@@ -3436,7 +3742,7 @@
         <v>133</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>153</v>
@@ -3475,7 +3781,7 @@
         <v>127</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>153</v>
@@ -3504,7 +3810,7 @@
         <v>20</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>172</v>
@@ -3516,7 +3822,7 @@
         <v>144</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>153</v>
@@ -3555,7 +3861,7 @@
         <v>151</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>153</v>
@@ -3594,7 +3900,7 @@
         <v>152</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>153</v>
@@ -3606,7 +3912,7 @@
         <v>145</v>
       </c>
     </row>
-    <row ht="30" r="53" spans="1:15">
+    <row r="53" spans="1:15">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
@@ -3631,7 +3937,7 @@
         <v>194</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>153</v>
@@ -3670,7 +3976,7 @@
         <v>116</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>153</v>
@@ -3709,7 +4015,7 @@
         <v>117</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>153</v>
@@ -3748,7 +4054,7 @@
         <v>190</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>153</v>
@@ -3787,7 +4093,7 @@
         <v>192</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>153</v>
@@ -3826,7 +4132,7 @@
         <v>116</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>153</v>
@@ -3865,7 +4171,7 @@
         <v>196</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>153</v>
@@ -3904,7 +4210,7 @@
         <v>199</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>153</v>
@@ -3943,7 +4249,7 @@
         <v>202</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>153</v>
@@ -3984,7 +4290,7 @@
         <v>205</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>153</v>
@@ -4029,7 +4335,7 @@
         <v>132</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>153</v>
@@ -4068,7 +4374,7 @@
         <v>202</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>153</v>
@@ -4088,7 +4394,7 @@
         <v>208</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>68</v>
@@ -4100,16 +4406,16 @@
         <v>217</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>153</v>
@@ -4129,7 +4435,7 @@
         <v>213</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>19</v>
@@ -4138,16 +4444,16 @@
         <v>20</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>153</v>
@@ -4164,7 +4470,7 @@
         <v>193</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>209</v>
@@ -4186,7 +4492,7 @@
         <v>210</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>153</v>
